--- a/Atividades/Atividade_11_09_2023.xlsx
+++ b/Atividades/Atividade_11_09_2023.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BDiniz\Documents\code\Github\brlpdiniz\UTP\engenharia-software\Atividades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA441D7A-B8D5-43AB-86E0-6FDAA6277905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{837EC776-239B-4C59-BE09-60C696D2A0C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="57">
   <si>
     <t>Descrição dos Requisitos</t>
   </si>
@@ -43,6 +43,9 @@
     <t>Manter cadastro p/ cada produto: {código, código de barras, nome, descrição, categoria do produto, marca e quantidade atual no estoque}</t>
   </si>
   <si>
+    <t>Funcionário</t>
+  </si>
+  <si>
     <t>Funcional</t>
   </si>
   <si>
@@ -58,12 +61,18 @@
     <t>Manter cadastro de fornecedor</t>
   </si>
   <si>
+    <t>Funcionário/Administrador</t>
+  </si>
+  <si>
     <t>RF04</t>
   </si>
   <si>
     <t>Manter o cadastro de funcionários</t>
   </si>
   <si>
+    <t>Administrador</t>
+  </si>
+  <si>
     <t>RF05</t>
   </si>
   <si>
@@ -82,6 +91,9 @@
     <t>Fornecer filtro para buscar por código, nome ou parte do nome, categoria e/ou marca do produto</t>
   </si>
   <si>
+    <t>Programador</t>
+  </si>
+  <si>
     <t>RF08</t>
   </si>
   <si>
@@ -91,6 +103,9 @@
     <t>RF09</t>
   </si>
   <si>
+    <t>Dar baixa no produto (do estoque) e emissão de NF</t>
+  </si>
+  <si>
     <t>RF10</t>
   </si>
   <si>
@@ -106,18 +121,30 @@
     <t>RF12</t>
   </si>
   <si>
+    <t>O sistema deve ter uma rotina automaziada de backup em nuvem</t>
+  </si>
+  <si>
     <t>RNF01</t>
   </si>
   <si>
     <t>O sistema deverá ter a capacidade de funcionar no SO Windows com browser internet Google Chrome</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Não funcional - Usabilidade</t>
+  </si>
+  <si>
     <t>RNF02</t>
   </si>
   <si>
     <t>Em todas as janelas do sistema é necessário mostrar a logo da PeçaCerta</t>
   </si>
   <si>
+    <t xml:space="preserve">Não funcional - Design </t>
+  </si>
+  <si>
     <t>RNF03</t>
   </si>
   <si>
@@ -127,102 +154,66 @@
     <t>RNF04</t>
   </si>
   <si>
+    <t xml:space="preserve">Os clientes poderão consultar o seu histórico de compras realizadas na loja </t>
+  </si>
+  <si>
     <t>RNF05</t>
   </si>
   <si>
+    <t>A empresa necessitará de um sistema de help online a fim de auxiliar os vendedores nos primeiros momentos de transição do sistema bem como treinamento para novos vendedores</t>
+  </si>
+  <si>
     <t>RNF06</t>
   </si>
   <si>
+    <t>A empresa precisará também de um manual impresso para futuras consultas</t>
+  </si>
+  <si>
+    <t>Não funcional - Documentação</t>
+  </si>
+  <si>
     <t>RNF07</t>
   </si>
   <si>
+    <t xml:space="preserve">O sistema deverá ser web com a possibilidade de se implantar um e-commerce nas versões futuras </t>
+  </si>
+  <si>
+    <t>Não funcional - Confiabilidade</t>
+  </si>
+  <si>
     <t>RNF08</t>
   </si>
   <si>
-    <t>O sistema deve ter uma rotina automaziada de backup em nuvem</t>
-  </si>
-  <si>
-    <t>Funcionário</t>
-  </si>
-  <si>
-    <t>Administrador</t>
-  </si>
-  <si>
-    <t>Funcionário/Administrador</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Não funcional - Design </t>
-  </si>
-  <si>
-    <t>Não funcional - Usabilidade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Os clientes poderão consultar o seu histórico de compras realizadas na loja </t>
-  </si>
-  <si>
-    <t>A empresa precisará também de um manual impresso para futuras consultas</t>
-  </si>
-  <si>
-    <t>Não funcional - Documentação</t>
-  </si>
-  <si>
-    <t>Não funcional - Confiabilidade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O sistema deverá ser web com a possibilidade de se implantar um e-commerce nas versões futuras </t>
-  </si>
-  <si>
     <t>O sistema deve ser capaz de lidar com múltiplas transações e consultas de clientes de forma eficiente</t>
   </si>
   <si>
-    <t>A empresa necessitará de um sistema de help online a fim de auxiliar os vendedores nos primeiros momentos de transição do sistema bem como treinamento para novos vendedores</t>
-  </si>
-  <si>
     <t>Não funcional - Desempenho</t>
   </si>
   <si>
-    <t>Programador</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Liberation Sans"/>
-      </rPr>
-      <t xml:space="preserve">Dar baixa </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Liberation Sans"/>
-      </rPr>
-      <t>no produto (do estoque) e emissão de NF</t>
-    </r>
+    <t>Bruno Leandro Diniz
+Ygor Lopes Nakonieczni
+Lucas Alush Barletta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="15">
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Liberation Sans"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Liberation Sans"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Liberation Sans"/>
     </font>
     <font>
@@ -286,25 +277,13 @@
       <i/>
       <u/>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Liberation Sans"/>
-    </font>
-    <font>
+      <color rgb="FF000000"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
-      <color theme="1"/>
-      <name val="Liberation Sans"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Liberation Sans"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Liberation Sans"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Liberation Sans"/>
     </font>
   </fonts>
@@ -358,7 +337,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -381,63 +360,81 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
-    <cellStyle name="Accent" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Accent 1" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Accent 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Accent 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Bad" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Error" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Footnote" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Good" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Heading" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="Heading 1" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="Heading 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="Hyperlink" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="Neutral" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Accent" xfId="1"/>
+    <cellStyle name="Accent 1" xfId="2"/>
+    <cellStyle name="Accent 2" xfId="3"/>
+    <cellStyle name="Accent 3" xfId="4"/>
+    <cellStyle name="Bad" xfId="5"/>
+    <cellStyle name="Error" xfId="6"/>
+    <cellStyle name="Footnote" xfId="7"/>
+    <cellStyle name="Good" xfId="8"/>
+    <cellStyle name="Heading" xfId="9"/>
+    <cellStyle name="Heading 1" xfId="10"/>
+    <cellStyle name="Heading 2" xfId="11"/>
+    <cellStyle name="Hyperlink" xfId="12"/>
+    <cellStyle name="Neutral" xfId="13"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Note" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="Result" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="Status" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="Text" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="Warning" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Note" xfId="14"/>
+    <cellStyle name="Result" xfId="15"/>
+    <cellStyle name="Status" xfId="16"/>
+    <cellStyle name="Text" xfId="17"/>
+    <cellStyle name="Warning" xfId="18"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -748,11 +745,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMJ51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.65" customHeight="1"/>
@@ -762,436 +759,493 @@
     <col min="3" max="3" width="23.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="28.28515625" style="1" customWidth="1"/>
     <col min="5" max="1024" width="12.140625" style="1" customWidth="1"/>
+    <col min="1025" max="1025" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.5" customHeight="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" ht="78.75" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4" ht="34.5" customHeight="1">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-    </row>
-    <row r="2" spans="1:4" ht="30">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" ht="31.5">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="23.65" customHeight="1">
-      <c r="A3" s="3" t="s">
+    <row r="4" spans="1:4" ht="23.65" customHeight="1">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="23.65" customHeight="1">
+      <c r="A5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="23.65" customHeight="1">
+      <c r="A6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="23.65" customHeight="1">
+      <c r="A7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="23.65" customHeight="1">
+      <c r="A8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="23.65" customHeight="1">
+      <c r="A9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="23.65" customHeight="1">
+      <c r="A10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="23.65" customHeight="1">
+      <c r="A11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="23.65" customHeight="1">
+      <c r="A12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="23.65" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="23.65" customHeight="1">
+      <c r="A14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="23.65" customHeight="1">
+      <c r="A15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="23.65" customHeight="1">
+      <c r="A16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="23.65" customHeight="1">
+      <c r="A17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="23.65" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="23.65" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="3" t="s">
+    </row>
+    <row r="18" spans="1:4" ht="23.65" customHeight="1">
+      <c r="A18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="23.65" customHeight="1">
-      <c r="A6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="23.65" customHeight="1">
-      <c r="A7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="23.65" customHeight="1">
-      <c r="A8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="23.65" customHeight="1">
-      <c r="A9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="C18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="23.65" customHeight="1">
+      <c r="A19" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="23.65" customHeight="1">
+      <c r="A20" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="23.65" customHeight="1">
+      <c r="A21" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="23.65" customHeight="1">
+      <c r="A22" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="23.65" customHeight="1">
+      <c r="A23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="23.65" customHeight="1">
-      <c r="A10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="23.65" customHeight="1">
-      <c r="A11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="C23" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="23.65" customHeight="1">
-      <c r="A12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="23.65" customHeight="1">
-      <c r="A13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="23.65" customHeight="1">
-      <c r="A14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="23.65" customHeight="1">
-      <c r="A15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="23.65" customHeight="1">
-      <c r="A16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="23.65" customHeight="1">
-      <c r="A17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="23.65" customHeight="1">
-      <c r="A18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="25.5">
-      <c r="A19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="23.65" customHeight="1">
-      <c r="A20" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="23.65" customHeight="1">
-      <c r="A21" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="23.65" customHeight="1">
-      <c r="A22" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="23.65" customHeight="1">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:4" ht="23.65" customHeight="1">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4" ht="23.65" customHeight="1">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4" ht="23.65" customHeight="1">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" ht="23.65" customHeight="1">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4" ht="23.65" customHeight="1">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4" ht="23.65" customHeight="1">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:4" ht="23.65" customHeight="1">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4" ht="23.65" customHeight="1">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:4" ht="23.65" customHeight="1">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:4" ht="23.65" customHeight="1">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4" ht="23.65" customHeight="1">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4" ht="23.65" customHeight="1">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
     </row>
     <row r="36" spans="1:4" ht="23.65" customHeight="1">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:4" ht="23.65" customHeight="1">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
     </row>
     <row r="38" spans="1:4" ht="23.65" customHeight="1">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
     </row>
     <row r="39" spans="1:4" ht="23.65" customHeight="1">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
     </row>
     <row r="40" spans="1:4" ht="23.65" customHeight="1">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:4" ht="23.65" customHeight="1">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
     </row>
     <row r="42" spans="1:4" ht="23.65" customHeight="1">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="1:4" ht="23.65" customHeight="1">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="1:4" ht="23.65" customHeight="1">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="1:4" ht="23.65" customHeight="1">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="1:4" ht="23.65" customHeight="1">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="1:4" ht="23.65" customHeight="1">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" spans="1:4" ht="23.65" customHeight="1">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="1:4" ht="23.65" customHeight="1">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+    </row>
+    <row r="50" spans="1:4" ht="23.65" customHeight="1">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" spans="1:4" ht="23.65" customHeight="1">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
+    <mergeCell ref="A2:D2"/>
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <phoneticPr fontId="16" type="noConversion"/>
-  <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
+  <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
